--- a/biology/Botanique/Acacia_mangium/Acacia_mangium.xlsx
+++ b/biology/Botanique/Acacia_mangium/Acacia_mangium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia mangium est une espèce de plantes à fleurs de la famille des Fabacées, de la sous-famille des Mimosoidées. C'est un arbre qui peut atteindre 30 m de hauteur. Il est originaire du nord-est de l'Australie et du sud-est asiatique.
-Comme beaucoup de Fabaceae, l'espèce fixe l'azote atmosphérique grâce à des bactéries symbiotiques vivant dans ses racines. Cette particularité et sa croissance rapide font qu'on essaie de le cultiver dans des zones où les sols sont pauvres en azote[3],[4].
+Comme beaucoup de Fabaceae, l'espèce fixe l'azote atmosphérique grâce à des bactéries symbiotiques vivant dans ses racines. Cette particularité et sa croissance rapide font qu'on essaie de le cultiver dans des zones où les sols sont pauvres en azote,.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fut d'abord décrite par Rumpf (1627-1702) sous le nom de Mangium montanum, dans son ouvrage posthume publié en 1741-50. Il en proposait la description suivante :
 « Mangium montanum. Mangi Mangi Goenong. Hæc arbor Mangi Mangi Goenong dicta , in parvis creſcit ſilvis in Omæ &amp; Haroekæ montibus, formam vulgaris Mangii exhibens, cujus &amp; foliis magnitudine, non autem venarum decurſu reſpondet, ſunt autem quinque pollices longa, fesquipedem lata, in obtuſum apicem deſinentia, per longitudinem quatuor, nervis diſtincta , utrimque protuberantibus, nullum vero gerunt nervum medium , unde &amp; quodammodo ſimilia ſunt illis Dammar Batu, vel magis proprie illis Canellæ ſilveſtris, ingratè dulcis ſaporis. Arbor plurimos gerit breves ramulos denſamque comam, ramuli autem ſuperiores potiſſimum anguloſi ſunt ſeu triangulares, quibus folia nunc ſolitaria, nunc bina obpoſita inſident. Poſt folia fructus progerminant plures ex racemis dependentes, quæ parvæ ſunt, virides, planaæ, incurvæ, interrupt ſiliculæ, inſtar plurium ſcorpionum intricatæ, binos circiter pollices longæ, culmum craſſæ, in quibus quatuor vel quinque obcluduntur ſemina nigra, Lini ſemina æmulantia, ſed minora, nigra, &amp; ſplendentia, rubra obtecta pellicula: Sub hac arbore nulle aliæ creſcunt herbæ. Omaſenſes illam vocant Mangi Mangi Octan &amp; Goenong, nullum mihi amplius ejus nomen innotuit. In rubro creſcit ſolo, diſtinguenda vero eſt ab alia arbore Mangi Mangi Utan dicta, ſupra capite 28 deſcripta, unde hæc Omaſenſis arbor meliore jure vocanda eſſet Mangi Mangi Goenong ſeu montana, vel potius peculiaris alia habenda eſt arbor‚ natura &amp; forma Mangiorum familia nimium diverſa.
 In Rumphii Adpendice hæc ſubſequuntur.  Huc usque nulla alia mihi obvenit arbor, cujus folia hanc habent proprietatem, quod quatuor gerant nervos longitudinales: Anno 1690. hæc arbor in Ley-timora reperta fuit, ejusque ramus mihi inde transmiſſus forte junioris arboris, cujus rami extremi quadragoni, &amp; acute fere alati erant, hisce folia infident plurimum ſolitaria, ſed bina ſibi mox ſubſequuntur, que brevibus ſufſinentur petiolis, ſex ſeptemque pollices longa, tres &amp; tres cum dimidio lata, ſuperius obtuſa, ſcabra, &amp; deorſum inflexa, &amp;, uti dictum , quatuor nervis longitudinalibus usque ad extremum donata, qui utrimque protuberant. Ex alis ipſorum ſimplex &amp; ſolitarius progerminat petiolus, quadratum &amp; acutum ſuſtinens capitulum, quod floris rudimentum eſſe quis putaret, ſed ſeſe in quatuor tenera explicat foliola, viſcoſa, quales &amp; petioli ſunt. Fructus in textu ſupra notati ſunt.
 Tabula Ottogeſima Prima
 Ramum exhibet Mangii montani, ſeu Goenongi. »
-— Georg Everhard Rumpf, 1700[6].
+— Georg Everhard Rumpf, 1700.
 proposition de traduction : 
 Mangi de montagne. Mangi Mangi Goenong.
 Cet arbre, appelé Mangi Mangi Goenong, pousse dans les petites forêts des montagnes d'Oma (id) et de Haruku (id), présentant la forme du Mangi commun, dont les feuilles correspondent en taille, mais pas au niveau des nervures, et mesurent cinq pouces de long, un pied de large, se terminant par un apex émoussé, long de quatre, se distinguant par des nervures saillants des deux côtés, mais ils ne portent aucune nervure médiane, ce en quoi elles ressemblent en quelque sorte à celles du Dammar Batu, ou plus exactement à celles de la cannelle sauvage, au goût désagréablement sucré.
@@ -534,14 +548,14 @@
 En 1805, le botaniste Willdenow fut le premier à le décrire selon la nomenclature linnéenne, et en proposait la diagnose suivante :
 « 13. ACACIA Mangium. W.
 A. inermis, foliis ovatis acutis oblique venoſis, leguminibus falcatis, ramis triquetris. W.
-Mangium montanum, Rumph. amb. 3. p. 123. t. 81[6].
+Mangium montanum, Rumph. amb. 3. p. 123. t. 81.
 Mangium-Acacie. W.
 Habitat in Moluccis. ♄. 
 Accedit ad praecedentem tamen multis notis diverſa, differt enim: ramulis triquetris, qui in A. laurifolia ſubangulati, foliis inaequilateris coſta media uno latere ramos tres nervoſos exſerente, cum in A. laurifolia nulla coſta media et nervi plerumque 13 a baſi ad apicem excurrunt. W. »
-— Carl Ludwig von Willdenow, 1805[7].
+— Carl Ludwig von Willdenow, 1805.
 proposition de traduction : 
 Acacia inerme, avec des feuilles ovales fortement nervurées obliquement, des gousses falquées, des branches triquettes. W.
-Mangium montanum, Rumph. amb. 3. p. 123. t. 81[6].
+Mangium montanum, Rumph. amb. 3. p. 123. t. 81.
 Mangium-Acacie. W.
 Vit aux Moluques. ♄.
 Il est proche de l'espèce précédente [Acacia laurifolia] mais en diffère par de nombreuses caractéristiques : les branches, subanguleuses chez A. laurifolia, sont ici triquettes. Les feuilles ont une nervure médiane inéquitable avec trois nervures ramifiée dépassant d'un côté, tandis que chez A. laurifolia on n'observe pas de nervure médiane mais généralement 13 nervures allant de la base à l'apex. W.
